--- a/src/test/outputfile/Test_Output.xlsx
+++ b/src/test/outputfile/Test_Output.xlsx
@@ -401,7 +401,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
